--- a/www/ig/fhir/ror/StructureDefinition-ror-confidence-geolocation.xlsx
+++ b/www/ig/fhir/ror/StructureDefinition-ror-confidence-geolocation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T08:51:34+00:00</t>
+    <t>2024-03-13T09:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/ror/StructureDefinition-ror-confidence-geolocation.xlsx
+++ b/www/ig/fhir/ror/StructureDefinition-ror-confidence-geolocation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:14:58+00:00</t>
+    <t>2024-12-09T14:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/ror/StructureDefinition-ror-confidence-geolocation.xlsx
+++ b/www/ig/fhir/ror/StructureDefinition-ror-confidence-geolocation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T14:32:19+00:00</t>
+    <t>2025-03-17T13:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/ror/StructureDefinition-ror-confidence-geolocation.xlsx
+++ b/www/ig/fhir/ror/StructureDefinition-ror-confidence-geolocation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:25:57+00:00</t>
+    <t>2025-07-30T09:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
